--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam1-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam1-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H2">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I2">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J2">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.428169</v>
       </c>
       <c r="O2">
-        <v>0.0004707902754357479</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P2">
-        <v>0.0004707902754357478</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q2">
-        <v>4.041436096166</v>
+        <v>5.018254715677</v>
       </c>
       <c r="R2">
-        <v>36.372924865494</v>
+        <v>45.164292441093</v>
       </c>
       <c r="S2">
-        <v>0.0001121693513680849</v>
+        <v>0.0002158970635026584</v>
       </c>
       <c r="T2">
-        <v>0.0001121693513680849</v>
+        <v>0.0002158970635026584</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H3">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I3">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J3">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.0881626666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N3">
-        <v>444.264488</v>
+        <v>259.283421</v>
       </c>
       <c r="O3">
-        <v>0.4884879584272602</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P3">
-        <v>0.4884879584272601</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q3">
-        <v>4193.359486669766</v>
+        <v>3038.870749937793</v>
       </c>
       <c r="R3">
-        <v>37740.23538002789</v>
+        <v>27349.83674944014</v>
       </c>
       <c r="S3">
-        <v>0.1163859584762894</v>
+        <v>0.130739332387033</v>
       </c>
       <c r="T3">
-        <v>0.1163859584762894</v>
+        <v>0.130739332387033</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H4">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I4">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J4">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>154.9253336666667</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N4">
-        <v>464.776001</v>
+        <v>0.019084</v>
       </c>
       <c r="O4">
-        <v>0.5110412512973043</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P4">
-        <v>0.5110412512973042</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q4">
-        <v>4386.965210169547</v>
+        <v>0.2236695627053333</v>
       </c>
       <c r="R4">
-        <v>39482.68689152593</v>
+        <v>2.013026064348</v>
       </c>
       <c r="S4">
-        <v>0.1217594514400211</v>
+        <v>9.622788104427767E-06</v>
       </c>
       <c r="T4">
-        <v>0.1217594514400211</v>
+        <v>9.622788104427767E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.208719</v>
+        <v>35.160799</v>
       </c>
       <c r="H5">
-        <v>96.62615700000001</v>
+        <v>105.482397</v>
       </c>
       <c r="I5">
-        <v>0.2710057011792882</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J5">
-        <v>0.2710057011792882</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.142723</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N5">
-        <v>0.428169</v>
+        <v>184.299025</v>
       </c>
       <c r="O5">
-        <v>0.0004707902754357479</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P5">
-        <v>0.0004707902754357478</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q5">
-        <v>4.596925001837</v>
+        <v>2160.033657973658</v>
       </c>
       <c r="R5">
-        <v>41.372325016533</v>
+        <v>19440.30292176292</v>
       </c>
       <c r="S5">
-        <v>0.0001275868487028551</v>
+        <v>0.09292970370088219</v>
       </c>
       <c r="T5">
-        <v>0.0001275868487028551</v>
+        <v>0.09292970370088219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I6">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J6">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>148.0881626666667</v>
+        <v>0.142723</v>
       </c>
       <c r="N6">
-        <v>444.264488</v>
+        <v>0.428169</v>
       </c>
       <c r="O6">
-        <v>0.4884879584272602</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P6">
-        <v>0.4884879584272601</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q6">
-        <v>4769.730018556958</v>
+        <v>4.596925001837</v>
       </c>
       <c r="R6">
-        <v>42927.57016701262</v>
+        <v>41.372325016533</v>
       </c>
       <c r="S6">
-        <v>0.1323830216912187</v>
+        <v>0.000197770473056721</v>
       </c>
       <c r="T6">
-        <v>0.1323830216912186</v>
+        <v>0.000197770473056721</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I7">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J7">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>154.9253336666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N7">
-        <v>464.776001</v>
+        <v>259.283421</v>
       </c>
       <c r="O7">
-        <v>0.5110412512973043</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P7">
-        <v>0.5110412512973042</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q7">
-        <v>4989.946538050906</v>
+        <v>2783.728949449234</v>
       </c>
       <c r="R7">
-        <v>44909.51884245816</v>
+        <v>25053.5605450431</v>
       </c>
       <c r="S7">
-        <v>0.1384950926393668</v>
+        <v>0.1197625349498328</v>
       </c>
       <c r="T7">
-        <v>0.1384950926393668</v>
+        <v>0.1197625349498328</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.02080233333333</v>
+        <v>32.208719</v>
       </c>
       <c r="H8">
-        <v>57.062407</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I8">
-        <v>0.1600419399895302</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J8">
-        <v>0.1600419399895302</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.142723</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N8">
-        <v>0.428169</v>
+        <v>0.019084</v>
       </c>
       <c r="O8">
-        <v>0.0004707902754357479</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P8">
-        <v>0.0004707902754357478</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q8">
-        <v>2.714705971420333</v>
+        <v>0.2048903977986667</v>
       </c>
       <c r="R8">
-        <v>24.432353742783</v>
+        <v>1.844013580188</v>
       </c>
       <c r="S8">
-        <v>7.534618900894236E-05</v>
+        <v>8.814864475976689E-06</v>
       </c>
       <c r="T8">
-        <v>7.534618900894235E-05</v>
+        <v>8.814864475976689E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.02080233333333</v>
+        <v>32.208719</v>
       </c>
       <c r="H9">
-        <v>57.062407</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I9">
-        <v>0.1600419399895302</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J9">
-        <v>0.1600419399895302</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>148.0881626666667</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N9">
-        <v>444.264488</v>
+        <v>184.299025</v>
       </c>
       <c r="O9">
-        <v>0.4884879584272602</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P9">
-        <v>0.4884879584272601</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q9">
-        <v>2816.75566998918</v>
+        <v>1978.678502732992</v>
       </c>
       <c r="R9">
-        <v>25350.80102990262</v>
+        <v>17808.10652459693</v>
       </c>
       <c r="S9">
-        <v>0.0781785605282237</v>
+        <v>0.0851273804459044</v>
       </c>
       <c r="T9">
-        <v>0.07817856052822368</v>
+        <v>0.0851273804459044</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H10">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I10">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J10">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>154.9253336666667</v>
+        <v>0.142723</v>
       </c>
       <c r="N10">
-        <v>464.776001</v>
+        <v>0.428169</v>
       </c>
       <c r="O10">
-        <v>0.5110412512973043</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P10">
-        <v>0.5110412512973042</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q10">
-        <v>2946.804148099378</v>
+        <v>7.355025045069334</v>
       </c>
       <c r="R10">
-        <v>26521.2373328944</v>
+        <v>66.195225405624</v>
       </c>
       <c r="S10">
-        <v>0.0817880332722976</v>
+        <v>0.0003164303924745585</v>
       </c>
       <c r="T10">
-        <v>0.08178803327229757</v>
+        <v>0.0003164303924745585</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,61 +1098,61 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3684403333333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H11">
-        <v>1.105321</v>
+        <v>154.600696</v>
       </c>
       <c r="I11">
-        <v>0.003100074575388443</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J11">
-        <v>0.003100074575388443</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.142723</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N11">
-        <v>0.428169</v>
+        <v>259.283421</v>
       </c>
       <c r="O11">
-        <v>0.0004707902754357479</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P11">
-        <v>0.0004707902754357478</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q11">
-        <v>0.05258490969433333</v>
+        <v>4453.933038651225</v>
       </c>
       <c r="R11">
-        <v>0.4732641872489999</v>
+        <v>40085.39734786102</v>
       </c>
       <c r="S11">
-        <v>1.459484963218484E-06</v>
+        <v>0.1916186241161228</v>
       </c>
       <c r="T11">
-        <v>1.459484963218484E-06</v>
+        <v>0.1916186241161228</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3684403333333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H12">
-        <v>1.105321</v>
+        <v>154.600696</v>
       </c>
       <c r="I12">
-        <v>0.003100074575388443</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J12">
-        <v>0.003100074575388443</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>148.0881626666667</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N12">
-        <v>444.264488</v>
+        <v>0.019084</v>
       </c>
       <c r="O12">
-        <v>0.4884879584272602</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P12">
-        <v>0.4884879584272601</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q12">
-        <v>54.56165201562756</v>
+        <v>0.3278221869404445</v>
       </c>
       <c r="R12">
-        <v>491.054868140648</v>
+        <v>2.950399682464</v>
       </c>
       <c r="S12">
-        <v>0.001514349100303756</v>
+        <v>1.410367777672945E-05</v>
       </c>
       <c r="T12">
-        <v>0.001514349100303756</v>
+        <v>1.410367777672945E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3684403333333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H13">
-        <v>1.105321</v>
+        <v>154.600696</v>
       </c>
       <c r="I13">
-        <v>0.003100074575388443</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J13">
-        <v>0.003100074575388443</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>154.9253336666667</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N13">
-        <v>464.776001</v>
+        <v>184.299025</v>
       </c>
       <c r="O13">
-        <v>0.5110412512973043</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P13">
-        <v>0.5110412512973042</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q13">
-        <v>57.08074157792455</v>
+        <v>3165.861948569045</v>
       </c>
       <c r="R13">
-        <v>513.726674201321</v>
+        <v>28492.7575371214</v>
       </c>
       <c r="S13">
-        <v>0.001584265990121469</v>
+        <v>0.1362027909854017</v>
       </c>
       <c r="T13">
-        <v>0.001584265990121469</v>
+        <v>0.1362027909854017</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.93425766666667</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H14">
-        <v>116.802773</v>
+        <v>1.786678</v>
       </c>
       <c r="I14">
-        <v>0.3275947049881145</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J14">
-        <v>0.3275947049881145</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,27 +1308,27 @@
         <v>0.428169</v>
       </c>
       <c r="O14">
-        <v>0.0004707902754357479</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P14">
-        <v>0.0004707902754357478</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q14">
-        <v>5.556814056959666</v>
+        <v>0.08500001473133334</v>
       </c>
       <c r="R14">
-        <v>50.011326512637</v>
+        <v>0.7650001325820001</v>
       </c>
       <c r="S14">
-        <v>0.000154228401392647</v>
+        <v>3.656899583205364E-06</v>
       </c>
       <c r="T14">
-        <v>0.000154228401392647</v>
+        <v>3.656899583205364E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.93425766666667</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H15">
-        <v>116.802773</v>
+        <v>1.786678</v>
       </c>
       <c r="I15">
-        <v>0.3275947049881145</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J15">
-        <v>0.3275947049881145</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,400 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>148.0881626666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N15">
-        <v>444.264488</v>
+        <v>259.283421</v>
       </c>
       <c r="O15">
-        <v>0.4884879584272602</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P15">
-        <v>0.4884879584272601</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q15">
-        <v>5765.702682647247</v>
+        <v>51.47288711838201</v>
       </c>
       <c r="R15">
-        <v>51891.32414382523</v>
+        <v>463.255984065438</v>
       </c>
       <c r="S15">
-        <v>0.1600260686312246</v>
+        <v>0.002214484080320997</v>
       </c>
       <c r="T15">
-        <v>0.1600260686312246</v>
+        <v>0.002214484080320997</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5955593333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.786678</v>
+      </c>
+      <c r="I16">
+        <v>0.003792362411113143</v>
+      </c>
+      <c r="J16">
+        <v>0.003792362411113143</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.006361333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.019084</v>
+      </c>
+      <c r="O16">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="P16">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="Q16">
+        <v>0.003788551439111111</v>
+      </c>
+      <c r="R16">
+        <v>0.034096962952</v>
+      </c>
+      <c r="S16">
+        <v>1.629923503240337E-07</v>
+      </c>
+      <c r="T16">
+        <v>1.629923503240337E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5955593333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.786678</v>
+      </c>
+      <c r="I17">
+        <v>0.003792362411113143</v>
+      </c>
+      <c r="J17">
+        <v>0.003792362411113143</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>61.43300833333333</v>
+      </c>
+      <c r="N17">
+        <v>184.299025</v>
+      </c>
+      <c r="O17">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="P17">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="Q17">
+        <v>36.58700148766111</v>
+      </c>
+      <c r="R17">
+        <v>329.28301338895</v>
+      </c>
+      <c r="S17">
+        <v>0.001574058438858616</v>
+      </c>
+      <c r="T17">
+        <v>0.001574058438858616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>38.93425766666667</v>
-      </c>
-      <c r="H16">
-        <v>116.802773</v>
-      </c>
-      <c r="I16">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="J16">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>154.9253336666667</v>
-      </c>
-      <c r="N16">
-        <v>464.776001</v>
-      </c>
-      <c r="O16">
-        <v>0.5110412512973043</v>
-      </c>
-      <c r="P16">
-        <v>0.5110412512973042</v>
-      </c>
-      <c r="Q16">
-        <v>6031.902860072308</v>
-      </c>
-      <c r="R16">
-        <v>54287.12574065076</v>
-      </c>
-      <c r="S16">
-        <v>0.1674144079554973</v>
-      </c>
-      <c r="T16">
-        <v>0.1674144079554972</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>37.54313466666667</v>
+      </c>
+      <c r="H18">
+        <v>112.629404</v>
+      </c>
+      <c r="I18">
+        <v>0.2390646317443189</v>
+      </c>
+      <c r="J18">
+        <v>0.2390646317443189</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.142723</v>
+      </c>
+      <c r="N18">
+        <v>0.428169</v>
+      </c>
+      <c r="O18">
+        <v>0.0009642800942465787</v>
+      </c>
+      <c r="P18">
+        <v>0.0009642800942465787</v>
+      </c>
+      <c r="Q18">
+        <v>5.358268809030667</v>
+      </c>
+      <c r="R18">
+        <v>48.224419281276</v>
+      </c>
+      <c r="S18">
+        <v>0.0002305252656294355</v>
+      </c>
+      <c r="T18">
+        <v>0.0002305252656294355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>37.54313466666667</v>
+      </c>
+      <c r="H19">
+        <v>112.629404</v>
+      </c>
+      <c r="I19">
+        <v>0.2390646317443189</v>
+      </c>
+      <c r="J19">
+        <v>0.2390646317443189</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>86.42780700000002</v>
+      </c>
+      <c r="N19">
+        <v>259.283421</v>
+      </c>
+      <c r="O19">
+        <v>0.5839326098770704</v>
+      </c>
+      <c r="P19">
+        <v>0.5839326098770704</v>
+      </c>
+      <c r="Q19">
+        <v>3244.770797145677</v>
+      </c>
+      <c r="R19">
+        <v>29202.93717431109</v>
+      </c>
+      <c r="S19">
+        <v>0.1395976343437609</v>
+      </c>
+      <c r="T19">
+        <v>0.1395976343437609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>37.54313466666667</v>
+      </c>
+      <c r="H20">
+        <v>112.629404</v>
+      </c>
+      <c r="I20">
+        <v>0.2390646317443189</v>
+      </c>
+      <c r="J20">
+        <v>0.2390646317443189</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.006361333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.019084</v>
+      </c>
+      <c r="O20">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="P20">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="Q20">
+        <v>0.2388243939928889</v>
+      </c>
+      <c r="R20">
+        <v>2.149419545936</v>
+      </c>
+      <c r="S20">
+        <v>1.027478441753641E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.027478441753641E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>37.54313466666667</v>
+      </c>
+      <c r="H21">
+        <v>112.629404</v>
+      </c>
+      <c r="I21">
+        <v>0.2390646317443189</v>
+      </c>
+      <c r="J21">
+        <v>0.2390646317443189</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>61.43300833333333</v>
+      </c>
+      <c r="N21">
+        <v>184.299025</v>
+      </c>
+      <c r="O21">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="P21">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="Q21">
+        <v>2306.387704836789</v>
+      </c>
+      <c r="R21">
+        <v>20757.4893435311</v>
+      </c>
+      <c r="S21">
+        <v>0.09922619735051107</v>
+      </c>
+      <c r="T21">
+        <v>0.09922619735051107</v>
       </c>
     </row>
   </sheetData>
